--- a/www/IndicatorsPerCountry/Lebanon_GDPperCapita_TerritorialRef_1946_2012_CCode_422.xlsx
+++ b/www/IndicatorsPerCountry/Lebanon_GDPperCapita_TerritorialRef_1946_2012_CCode_422.xlsx
@@ -252,13 +252,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Lebanon_GDPperCapita_TerritorialRef_1946_2012_CCode_422.xlsx
+++ b/www/IndicatorsPerCountry/Lebanon_GDPperCapita_TerritorialRef_1946_2012_CCode_422.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="90">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,193 +36,217 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>657</t>
+    <t>1084</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>1350</t>
-  </si>
-  <si>
-    <t>2429</t>
-  </si>
-  <si>
-    <t>2121</t>
-  </si>
-  <si>
-    <t>2193</t>
-  </si>
-  <si>
-    <t>2457</t>
-  </si>
-  <si>
-    <t>2745</t>
-  </si>
-  <si>
-    <t>2886</t>
-  </si>
-  <si>
-    <t>2744</t>
-  </si>
-  <si>
-    <t>2717</t>
-  </si>
-  <si>
-    <t>2269</t>
-  </si>
-  <si>
-    <t>2395</t>
-  </si>
-  <si>
-    <t>2393</t>
-  </si>
-  <si>
-    <t>2482</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2459</t>
-  </si>
-  <si>
-    <t>2534</t>
-  </si>
-  <si>
-    <t>2706</t>
-  </si>
-  <si>
-    <t>2804</t>
-  </si>
-  <si>
-    <t>2592</t>
-  </si>
-  <si>
-    <t>2831</t>
-  </si>
-  <si>
-    <t>2810</t>
-  </si>
-  <si>
-    <t>2917</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>3176</t>
-  </si>
-  <si>
-    <t>3155</t>
-  </si>
-  <si>
-    <t>3502</t>
-  </si>
-  <si>
-    <t>3460</t>
-  </si>
-  <si>
-    <t>3523</t>
-  </si>
-  <si>
-    <t>3613</t>
-  </si>
-  <si>
-    <t>3709</t>
-  </si>
-  <si>
-    <t>3506</t>
-  </si>
-  <si>
-    <t>3524</t>
-  </si>
-  <si>
-    <t>3362</t>
-  </si>
-  <si>
-    <t>3134</t>
-  </si>
-  <si>
-    <t>3100</t>
-  </si>
-  <si>
-    <t>3165</t>
-  </si>
-  <si>
-    <t>3245</t>
-  </si>
-  <si>
-    <t>3101</t>
-  </si>
-  <si>
-    <t>2169</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1936.39087728</t>
-  </si>
-  <si>
-    <t>2637.62741715</t>
-  </si>
-  <si>
-    <t>2733.41054621</t>
-  </si>
-  <si>
-    <t>2895.56886146</t>
-  </si>
-  <si>
-    <t>3090.90821356</t>
-  </si>
-  <si>
-    <t>3248.61542039</t>
-  </si>
-  <si>
-    <t>3331.04054687</t>
-  </si>
-  <si>
-    <t>3415.55225475</t>
-  </si>
-  <si>
-    <t>3468.6321004</t>
-  </si>
-  <si>
-    <t>3392.6614863</t>
-  </si>
-  <si>
-    <t>3402.66001774</t>
-  </si>
-  <si>
-    <t>3506.85933643</t>
-  </si>
-  <si>
-    <t>3573.14986527</t>
-  </si>
-  <si>
-    <t>3669.8664085</t>
-  </si>
-  <si>
-    <t>3889.51502601</t>
-  </si>
-  <si>
-    <t>3935.79481748</t>
-  </si>
-  <si>
-    <t>3909.99507479</t>
-  </si>
-  <si>
-    <t>4152.3351663</t>
-  </si>
-  <si>
-    <t>4452.73482159</t>
+    <t>1514</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>3872</t>
+  </si>
+  <si>
+    <t>5150</t>
+  </si>
+  <si>
+    <t>5327</t>
+  </si>
+  <si>
+    <t>5968</t>
+  </si>
+  <si>
+    <t>6668</t>
+  </si>
+  <si>
+    <t>7010</t>
+  </si>
+  <si>
+    <t>6663</t>
+  </si>
+  <si>
+    <t>6599</t>
+  </si>
+  <si>
+    <t>5510</t>
+  </si>
+  <si>
+    <t>5818</t>
+  </si>
+  <si>
+    <t>5812</t>
+  </si>
+  <si>
+    <t>6027</t>
+  </si>
+  <si>
+    <t>6089</t>
+  </si>
+  <si>
+    <t>5973</t>
+  </si>
+  <si>
+    <t>6156</t>
+  </si>
+  <si>
+    <t>6572</t>
+  </si>
+  <si>
+    <t>6811</t>
+  </si>
+  <si>
+    <t>6295</t>
+  </si>
+  <si>
+    <t>6876</t>
+  </si>
+  <si>
+    <t>6824</t>
+  </si>
+  <si>
+    <t>7084</t>
+  </si>
+  <si>
+    <t>7533</t>
+  </si>
+  <si>
+    <t>8228</t>
+  </si>
+  <si>
+    <t>8397</t>
+  </si>
+  <si>
+    <t>8383</t>
+  </si>
+  <si>
+    <t>5742</t>
+  </si>
+  <si>
+    <t>2442</t>
+  </si>
+  <si>
+    <t>4417</t>
+  </si>
+  <si>
+    <t>4218</t>
+  </si>
+  <si>
+    <t>4536</t>
+  </si>
+  <si>
+    <t>4608</t>
+  </si>
+  <si>
+    <t>4549</t>
+  </si>
+  <si>
+    <t>2823</t>
+  </si>
+  <si>
+    <t>3402</t>
+  </si>
+  <si>
+    <t>4828</t>
+  </si>
+  <si>
+    <t>5895</t>
+  </si>
+  <si>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>6202</t>
+  </si>
+  <si>
+    <t>4385</t>
+  </si>
+  <si>
+    <t>2488</t>
+  </si>
+  <si>
+    <t>3086</t>
+  </si>
+  <si>
+    <t>4326.29940453324</t>
+  </si>
+  <si>
+    <t>4618.00542858399</t>
+  </si>
+  <si>
+    <t>5053.28030931609</t>
+  </si>
+  <si>
+    <t>5585.66696839544</t>
+  </si>
+  <si>
+    <t>6095.39700691427</t>
+  </si>
+  <si>
+    <t>6567.40063439123</t>
+  </si>
+  <si>
+    <t>6581.05312152084</t>
+  </si>
+  <si>
+    <t>6994.15693864753</t>
+  </si>
+  <si>
+    <t>7147.55479752894</t>
+  </si>
+  <si>
+    <t>7405.70702632181</t>
+  </si>
+  <si>
+    <t>7836.82660349531</t>
+  </si>
+  <si>
+    <t>8248.10023107528</t>
+  </si>
+  <si>
+    <t>8671.18778941922</t>
+  </si>
+  <si>
+    <t>9491.61065217681</t>
+  </si>
+  <si>
+    <t>9933.08189046069</t>
+  </si>
+  <si>
+    <t>10236.8682762669</t>
+  </si>
+  <si>
+    <t>11276.5066867525</t>
+  </si>
+  <si>
+    <t>12479.1077133744</t>
+  </si>
+  <si>
+    <t>14039.3461712922</t>
+  </si>
+  <si>
+    <t>15622.3671051114</t>
+  </si>
+  <si>
+    <t>16230</t>
+  </si>
+  <si>
+    <t>16315</t>
+  </si>
+  <si>
+    <t>15055</t>
+  </si>
+  <si>
+    <t>13416</t>
+  </si>
+  <si>
+    <t>12953</t>
+  </si>
+  <si>
+    <t>12972</t>
   </si>
   <si>
     <t>Description</t>
@@ -3539,6 +3563,142 @@
         <v>69</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3554,50 +3714,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
